--- a/raw data used/DimTime.xlsx
+++ b/raw data used/DimTime.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Team Knowhow\Documents\R\Test_repo\clean\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F1963F0-4999-4885-B59E-567E48253C97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="15">
   <si>
     <t>TimeID</t>
   </si>
@@ -39,9 +36,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Dec</t>
@@ -83,11 +77,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,13 +120,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -175,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -227,7 +241,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -421,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,15 +443,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C327"/>
+  <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -459,128 +473,128 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1996</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -588,131 +602,131 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -720,10 +734,10 @@
         <v>3</v>
       </c>
       <c r="C26">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -731,10 +745,10 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -742,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="C28">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -753,10 +767,10 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -764,10 +778,10 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -775,10 +789,10 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -786,10 +800,10 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -797,10 +811,10 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -808,10 +822,10 @@
         <v>11</v>
       </c>
       <c r="C34">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -819,10 +833,10 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -830,10 +844,10 @@
         <v>13</v>
       </c>
       <c r="C36">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -841,21 +855,21 @@
         <v>14</v>
       </c>
       <c r="C37">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -863,10 +877,10 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -874,10 +888,10 @@
         <v>5</v>
       </c>
       <c r="C40">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -885,10 +899,10 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -896,10 +910,10 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -907,10 +921,10 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -918,10 +932,10 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -929,10 +943,10 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -940,10 +954,10 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -951,10 +965,10 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -962,10 +976,10 @@
         <v>13</v>
       </c>
       <c r="C48">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -973,21 +987,21 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -995,10 +1009,10 @@
         <v>4</v>
       </c>
       <c r="C51">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1006,10 +1020,10 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1017,10 +1031,10 @@
         <v>6</v>
       </c>
       <c r="C53">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1028,10 +1042,10 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1039,10 +1053,10 @@
         <v>8</v>
       </c>
       <c r="C55">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1050,10 +1064,10 @@
         <v>9</v>
       </c>
       <c r="C56">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1061,10 +1075,10 @@
         <v>10</v>
       </c>
       <c r="C57">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1072,10 +1086,10 @@
         <v>11</v>
       </c>
       <c r="C58">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1083,10 +1097,10 @@
         <v>12</v>
       </c>
       <c r="C59">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1094,10 +1108,10 @@
         <v>13</v>
       </c>
       <c r="C60">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1105,21 +1119,21 @@
         <v>14</v>
       </c>
       <c r="C61">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1127,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1138,10 +1152,10 @@
         <v>5</v>
       </c>
       <c r="C64">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1149,10 +1163,10 @@
         <v>6</v>
       </c>
       <c r="C65">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1160,10 +1174,10 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1171,10 +1185,10 @@
         <v>8</v>
       </c>
       <c r="C67">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1182,10 +1196,10 @@
         <v>9</v>
       </c>
       <c r="C68">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1193,10 +1207,10 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1204,10 +1218,10 @@
         <v>11</v>
       </c>
       <c r="C70">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1215,10 +1229,10 @@
         <v>12</v>
       </c>
       <c r="C71">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1226,10 +1240,10 @@
         <v>13</v>
       </c>
       <c r="C72">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1237,21 +1251,21 @@
         <v>14</v>
       </c>
       <c r="C73">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1259,10 +1273,10 @@
         <v>4</v>
       </c>
       <c r="C75">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1270,10 +1284,10 @@
         <v>5</v>
       </c>
       <c r="C76">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1281,10 +1295,10 @@
         <v>6</v>
       </c>
       <c r="C77">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1292,10 +1306,10 @@
         <v>7</v>
       </c>
       <c r="C78">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1303,10 +1317,10 @@
         <v>8</v>
       </c>
       <c r="C79">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1314,10 +1328,10 @@
         <v>9</v>
       </c>
       <c r="C80">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1325,10 +1339,10 @@
         <v>10</v>
       </c>
       <c r="C81">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1336,10 +1350,10 @@
         <v>11</v>
       </c>
       <c r="C82">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1347,10 +1361,10 @@
         <v>12</v>
       </c>
       <c r="C83">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1358,10 +1372,10 @@
         <v>13</v>
       </c>
       <c r="C84">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1369,21 +1383,21 @@
         <v>14</v>
       </c>
       <c r="C85">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1391,10 +1405,10 @@
         <v>4</v>
       </c>
       <c r="C87">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1402,10 +1416,10 @@
         <v>5</v>
       </c>
       <c r="C88">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1413,10 +1427,10 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1424,10 +1438,10 @@
         <v>7</v>
       </c>
       <c r="C90">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1435,10 +1449,10 @@
         <v>8</v>
       </c>
       <c r="C91">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1446,10 +1460,10 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1457,10 +1471,10 @@
         <v>10</v>
       </c>
       <c r="C93">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1468,10 +1482,10 @@
         <v>11</v>
       </c>
       <c r="C94">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1479,10 +1493,10 @@
         <v>12</v>
       </c>
       <c r="C95">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1490,10 +1504,10 @@
         <v>13</v>
       </c>
       <c r="C96">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1501,21 +1515,21 @@
         <v>14</v>
       </c>
       <c r="C97">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C98">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1523,10 +1537,10 @@
         <v>4</v>
       </c>
       <c r="C99">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1534,10 +1548,10 @@
         <v>5</v>
       </c>
       <c r="C100">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1545,10 +1559,10 @@
         <v>6</v>
       </c>
       <c r="C101">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1556,10 +1570,10 @@
         <v>7</v>
       </c>
       <c r="C102">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1567,10 +1581,10 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1578,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="C104">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1589,10 +1603,10 @@
         <v>10</v>
       </c>
       <c r="C105">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1600,10 +1614,10 @@
         <v>11</v>
       </c>
       <c r="C106">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1611,10 +1625,10 @@
         <v>12</v>
       </c>
       <c r="C107">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1622,10 +1636,10 @@
         <v>13</v>
       </c>
       <c r="C108">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1633,21 +1647,21 @@
         <v>14</v>
       </c>
       <c r="C109">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1655,10 +1669,10 @@
         <v>4</v>
       </c>
       <c r="C111">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1666,10 +1680,10 @@
         <v>5</v>
       </c>
       <c r="C112">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1677,10 +1691,10 @@
         <v>6</v>
       </c>
       <c r="C113">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -1688,10 +1702,10 @@
         <v>7</v>
       </c>
       <c r="C114">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -1699,10 +1713,10 @@
         <v>8</v>
       </c>
       <c r="C115">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -1710,10 +1724,10 @@
         <v>9</v>
       </c>
       <c r="C116">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -1721,10 +1735,10 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -1732,10 +1746,10 @@
         <v>11</v>
       </c>
       <c r="C118">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -1743,10 +1757,10 @@
         <v>12</v>
       </c>
       <c r="C119">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -1754,10 +1768,10 @@
         <v>13</v>
       </c>
       <c r="C120">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -1765,21 +1779,21 @@
         <v>14</v>
       </c>
       <c r="C121">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C122">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -1787,10 +1801,10 @@
         <v>4</v>
       </c>
       <c r="C123">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -1798,10 +1812,10 @@
         <v>5</v>
       </c>
       <c r="C124">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -1809,10 +1823,10 @@
         <v>6</v>
       </c>
       <c r="C125">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -1820,10 +1834,10 @@
         <v>7</v>
       </c>
       <c r="C126">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -1831,10 +1845,10 @@
         <v>8</v>
       </c>
       <c r="C127">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -1842,10 +1856,10 @@
         <v>9</v>
       </c>
       <c r="C128">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -1853,10 +1867,10 @@
         <v>10</v>
       </c>
       <c r="C129">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -1864,10 +1878,10 @@
         <v>11</v>
       </c>
       <c r="C130">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -1875,10 +1889,10 @@
         <v>12</v>
       </c>
       <c r="C131">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -1886,10 +1900,10 @@
         <v>13</v>
       </c>
       <c r="C132">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -1897,21 +1911,21 @@
         <v>14</v>
       </c>
       <c r="C133">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C134">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -1919,10 +1933,10 @@
         <v>4</v>
       </c>
       <c r="C135">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -1930,10 +1944,10 @@
         <v>5</v>
       </c>
       <c r="C136">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -1941,10 +1955,10 @@
         <v>6</v>
       </c>
       <c r="C137">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -1952,10 +1966,10 @@
         <v>7</v>
       </c>
       <c r="C138">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -1963,10 +1977,10 @@
         <v>8</v>
       </c>
       <c r="C139">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -1974,10 +1988,10 @@
         <v>9</v>
       </c>
       <c r="C140">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -1985,10 +1999,10 @@
         <v>10</v>
       </c>
       <c r="C141">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -1996,10 +2010,10 @@
         <v>11</v>
       </c>
       <c r="C142">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2007,10 +2021,10 @@
         <v>12</v>
       </c>
       <c r="C143">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2018,10 +2032,10 @@
         <v>13</v>
       </c>
       <c r="C144">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2029,21 +2043,21 @@
         <v>14</v>
       </c>
       <c r="C145">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C146">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2051,10 +2065,10 @@
         <v>4</v>
       </c>
       <c r="C147">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2062,10 +2076,10 @@
         <v>5</v>
       </c>
       <c r="C148">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2073,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="C149">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2084,10 +2098,10 @@
         <v>7</v>
       </c>
       <c r="C150">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2095,10 +2109,10 @@
         <v>8</v>
       </c>
       <c r="C151">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2106,10 +2120,10 @@
         <v>9</v>
       </c>
       <c r="C152">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -2117,10 +2131,10 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -2128,10 +2142,10 @@
         <v>11</v>
       </c>
       <c r="C154">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -2139,10 +2153,10 @@
         <v>12</v>
       </c>
       <c r="C155">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -2150,10 +2164,10 @@
         <v>13</v>
       </c>
       <c r="C156">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -2161,21 +2175,21 @@
         <v>14</v>
       </c>
       <c r="C157">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C158">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -2183,10 +2197,10 @@
         <v>4</v>
       </c>
       <c r="C159">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -2194,10 +2208,10 @@
         <v>5</v>
       </c>
       <c r="C160">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -2205,10 +2219,10 @@
         <v>6</v>
       </c>
       <c r="C161">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -2216,10 +2230,10 @@
         <v>7</v>
       </c>
       <c r="C162">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -2227,10 +2241,10 @@
         <v>8</v>
       </c>
       <c r="C163">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -2238,10 +2252,10 @@
         <v>9</v>
       </c>
       <c r="C164">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -2249,10 +2263,10 @@
         <v>10</v>
       </c>
       <c r="C165">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -2260,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="C166">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -2271,10 +2285,10 @@
         <v>12</v>
       </c>
       <c r="C167">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -2282,10 +2296,10 @@
         <v>13</v>
       </c>
       <c r="C168">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -2293,21 +2307,21 @@
         <v>14</v>
       </c>
       <c r="C169">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C170">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -2315,10 +2329,10 @@
         <v>4</v>
       </c>
       <c r="C171">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -2326,10 +2340,10 @@
         <v>5</v>
       </c>
       <c r="C172">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -2337,10 +2351,10 @@
         <v>6</v>
       </c>
       <c r="C173">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -2348,10 +2362,10 @@
         <v>7</v>
       </c>
       <c r="C174">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -2359,10 +2373,10 @@
         <v>8</v>
       </c>
       <c r="C175">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -2370,10 +2384,10 @@
         <v>9</v>
       </c>
       <c r="C176">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -2381,10 +2395,10 @@
         <v>10</v>
       </c>
       <c r="C177">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -2392,10 +2406,10 @@
         <v>11</v>
       </c>
       <c r="C178">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -2403,10 +2417,10 @@
         <v>12</v>
       </c>
       <c r="C179">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -2414,10 +2428,10 @@
         <v>13</v>
       </c>
       <c r="C180">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -2425,21 +2439,21 @@
         <v>14</v>
       </c>
       <c r="C181">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C182">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -2447,10 +2461,10 @@
         <v>4</v>
       </c>
       <c r="C183">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -2458,10 +2472,10 @@
         <v>5</v>
       </c>
       <c r="C184">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -2469,10 +2483,10 @@
         <v>6</v>
       </c>
       <c r="C185">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -2480,10 +2494,10 @@
         <v>7</v>
       </c>
       <c r="C186">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -2491,10 +2505,10 @@
         <v>8</v>
       </c>
       <c r="C187">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -2502,10 +2516,10 @@
         <v>9</v>
       </c>
       <c r="C188">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -2513,10 +2527,10 @@
         <v>10</v>
       </c>
       <c r="C189">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -2524,10 +2538,10 @@
         <v>11</v>
       </c>
       <c r="C190">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -2535,10 +2549,10 @@
         <v>12</v>
       </c>
       <c r="C191">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -2546,10 +2560,10 @@
         <v>13</v>
       </c>
       <c r="C192">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -2557,21 +2571,21 @@
         <v>14</v>
       </c>
       <c r="C193">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C194">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -2579,10 +2593,10 @@
         <v>4</v>
       </c>
       <c r="C195">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -2590,10 +2604,10 @@
         <v>5</v>
       </c>
       <c r="C196">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -2601,10 +2615,10 @@
         <v>6</v>
       </c>
       <c r="C197">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -2612,10 +2626,10 @@
         <v>7</v>
       </c>
       <c r="C198">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -2623,10 +2637,10 @@
         <v>8</v>
       </c>
       <c r="C199">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -2634,10 +2648,10 @@
         <v>9</v>
       </c>
       <c r="C200">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -2645,10 +2659,10 @@
         <v>10</v>
       </c>
       <c r="C201">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -2656,10 +2670,10 @@
         <v>11</v>
       </c>
       <c r="C202">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -2667,10 +2681,10 @@
         <v>12</v>
       </c>
       <c r="C203">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -2678,10 +2692,10 @@
         <v>13</v>
       </c>
       <c r="C204">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -2689,21 +2703,21 @@
         <v>14</v>
       </c>
       <c r="C205">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C206">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -2711,10 +2725,10 @@
         <v>4</v>
       </c>
       <c r="C207">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -2722,10 +2736,10 @@
         <v>5</v>
       </c>
       <c r="C208">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -2733,10 +2747,10 @@
         <v>6</v>
       </c>
       <c r="C209">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -2744,10 +2758,10 @@
         <v>7</v>
       </c>
       <c r="C210">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -2755,10 +2769,10 @@
         <v>8</v>
       </c>
       <c r="C211">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -2766,10 +2780,10 @@
         <v>9</v>
       </c>
       <c r="C212">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -2777,10 +2791,10 @@
         <v>10</v>
       </c>
       <c r="C213">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -2788,10 +2802,10 @@
         <v>11</v>
       </c>
       <c r="C214">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -2799,10 +2813,10 @@
         <v>12</v>
       </c>
       <c r="C215">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -2810,10 +2824,10 @@
         <v>13</v>
       </c>
       <c r="C216">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -2821,21 +2835,21 @@
         <v>14</v>
       </c>
       <c r="C217">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C218">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -2843,10 +2857,10 @@
         <v>4</v>
       </c>
       <c r="C219">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -2854,10 +2868,10 @@
         <v>5</v>
       </c>
       <c r="C220">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -2865,10 +2879,10 @@
         <v>6</v>
       </c>
       <c r="C221">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -2876,10 +2890,10 @@
         <v>7</v>
       </c>
       <c r="C222">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -2887,10 +2901,10 @@
         <v>8</v>
       </c>
       <c r="C223">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -2898,10 +2912,10 @@
         <v>9</v>
       </c>
       <c r="C224">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -2909,10 +2923,10 @@
         <v>10</v>
       </c>
       <c r="C225">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -2920,10 +2934,10 @@
         <v>11</v>
       </c>
       <c r="C226">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -2931,10 +2945,10 @@
         <v>12</v>
       </c>
       <c r="C227">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -2942,10 +2956,10 @@
         <v>13</v>
       </c>
       <c r="C228">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -2953,21 +2967,21 @@
         <v>14</v>
       </c>
       <c r="C229">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C230">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -2975,10 +2989,10 @@
         <v>4</v>
       </c>
       <c r="C231">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -2986,10 +3000,10 @@
         <v>5</v>
       </c>
       <c r="C232">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -2997,10 +3011,10 @@
         <v>6</v>
       </c>
       <c r="C233">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -3008,10 +3022,10 @@
         <v>7</v>
       </c>
       <c r="C234">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -3019,10 +3033,10 @@
         <v>8</v>
       </c>
       <c r="C235">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -3030,10 +3044,10 @@
         <v>9</v>
       </c>
       <c r="C236">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -3041,10 +3055,10 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -3052,10 +3066,10 @@
         <v>11</v>
       </c>
       <c r="C238">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -3063,10 +3077,10 @@
         <v>12</v>
       </c>
       <c r="C239">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -3074,10 +3088,10 @@
         <v>13</v>
       </c>
       <c r="C240">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -3085,21 +3099,21 @@
         <v>14</v>
       </c>
       <c r="C241">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C242">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -3107,10 +3121,10 @@
         <v>4</v>
       </c>
       <c r="C243">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -3118,10 +3132,10 @@
         <v>5</v>
       </c>
       <c r="C244">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -3129,10 +3143,10 @@
         <v>6</v>
       </c>
       <c r="C245">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -3140,10 +3154,10 @@
         <v>7</v>
       </c>
       <c r="C246">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -3151,10 +3165,10 @@
         <v>8</v>
       </c>
       <c r="C247">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -3162,10 +3176,10 @@
         <v>9</v>
       </c>
       <c r="C248">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -3173,10 +3187,10 @@
         <v>10</v>
       </c>
       <c r="C249">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -3184,10 +3198,10 @@
         <v>11</v>
       </c>
       <c r="C250">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -3195,10 +3209,10 @@
         <v>12</v>
       </c>
       <c r="C251">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -3206,10 +3220,10 @@
         <v>13</v>
       </c>
       <c r="C252">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -3217,21 +3231,21 @@
         <v>14</v>
       </c>
       <c r="C253">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C254">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -3239,10 +3253,10 @@
         <v>4</v>
       </c>
       <c r="C255">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -3250,10 +3264,10 @@
         <v>5</v>
       </c>
       <c r="C256">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -3261,10 +3275,10 @@
         <v>6</v>
       </c>
       <c r="C257">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -3272,10 +3286,10 @@
         <v>7</v>
       </c>
       <c r="C258">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -3283,10 +3297,10 @@
         <v>8</v>
       </c>
       <c r="C259">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -3294,10 +3308,10 @@
         <v>9</v>
       </c>
       <c r="C260">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -3305,10 +3319,10 @@
         <v>10</v>
       </c>
       <c r="C261">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -3316,10 +3330,10 @@
         <v>11</v>
       </c>
       <c r="C262">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -3327,10 +3341,10 @@
         <v>12</v>
       </c>
       <c r="C263">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -3338,10 +3352,10 @@
         <v>13</v>
       </c>
       <c r="C264">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -3349,21 +3363,21 @@
         <v>14</v>
       </c>
       <c r="C265">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C266">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -3371,10 +3385,10 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -3382,10 +3396,10 @@
         <v>5</v>
       </c>
       <c r="C268">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -3393,10 +3407,10 @@
         <v>6</v>
       </c>
       <c r="C269">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -3404,10 +3418,10 @@
         <v>7</v>
       </c>
       <c r="C270">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -3415,10 +3429,10 @@
         <v>8</v>
       </c>
       <c r="C271">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -3426,10 +3440,10 @@
         <v>9</v>
       </c>
       <c r="C272">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -3437,10 +3451,10 @@
         <v>10</v>
       </c>
       <c r="C273">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -3448,10 +3462,10 @@
         <v>11</v>
       </c>
       <c r="C274">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -3459,10 +3473,10 @@
         <v>12</v>
       </c>
       <c r="C275">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -3470,10 +3484,10 @@
         <v>13</v>
       </c>
       <c r="C276">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -3481,21 +3495,21 @@
         <v>14</v>
       </c>
       <c r="C277">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C278">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -3503,10 +3517,10 @@
         <v>4</v>
       </c>
       <c r="C279">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -3514,10 +3528,10 @@
         <v>5</v>
       </c>
       <c r="C280">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -3525,10 +3539,10 @@
         <v>6</v>
       </c>
       <c r="C281">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -3536,10 +3550,10 @@
         <v>7</v>
       </c>
       <c r="C282">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -3547,10 +3561,10 @@
         <v>8</v>
       </c>
       <c r="C283">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -3558,10 +3572,10 @@
         <v>9</v>
       </c>
       <c r="C284">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -3569,10 +3583,10 @@
         <v>10</v>
       </c>
       <c r="C285">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -3580,10 +3594,10 @@
         <v>11</v>
       </c>
       <c r="C286">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -3591,10 +3605,10 @@
         <v>12</v>
       </c>
       <c r="C287">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -3602,10 +3616,10 @@
         <v>13</v>
       </c>
       <c r="C288">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -3613,21 +3627,21 @@
         <v>14</v>
       </c>
       <c r="C289">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C290">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -3635,10 +3649,10 @@
         <v>4</v>
       </c>
       <c r="C291">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -3646,10 +3660,10 @@
         <v>5</v>
       </c>
       <c r="C292">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -3657,10 +3671,10 @@
         <v>6</v>
       </c>
       <c r="C293">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -3668,10 +3682,10 @@
         <v>7</v>
       </c>
       <c r="C294">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -3679,10 +3693,10 @@
         <v>8</v>
       </c>
       <c r="C295">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -3690,10 +3704,10 @@
         <v>9</v>
       </c>
       <c r="C296">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -3701,10 +3715,10 @@
         <v>10</v>
       </c>
       <c r="C297">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -3712,10 +3726,10 @@
         <v>11</v>
       </c>
       <c r="C298">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -3723,10 +3737,10 @@
         <v>12</v>
       </c>
       <c r="C299">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -3734,10 +3748,10 @@
         <v>13</v>
       </c>
       <c r="C300">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -3745,296 +3759,26 @@
         <v>14</v>
       </c>
       <c r="C301">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C302">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A303">
-        <v>302</v>
-      </c>
-      <c r="B303" t="s">
-        <v>4</v>
-      </c>
-      <c r="C303">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A304">
-        <v>303</v>
-      </c>
-      <c r="B304" t="s">
-        <v>5</v>
-      </c>
-      <c r="C304">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A305">
-        <v>304</v>
-      </c>
-      <c r="B305" t="s">
-        <v>6</v>
-      </c>
-      <c r="C305">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A306">
-        <v>305</v>
-      </c>
-      <c r="B306" t="s">
-        <v>7</v>
-      </c>
-      <c r="C306">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A307">
-        <v>306</v>
-      </c>
-      <c r="B307" t="s">
-        <v>8</v>
-      </c>
-      <c r="C307">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A308">
-        <v>307</v>
-      </c>
-      <c r="B308" t="s">
-        <v>9</v>
-      </c>
-      <c r="C308">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A309">
-        <v>308</v>
-      </c>
-      <c r="B309" t="s">
-        <v>10</v>
-      </c>
-      <c r="C309">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A310">
-        <v>309</v>
-      </c>
-      <c r="B310" t="s">
-        <v>11</v>
-      </c>
-      <c r="C310">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A311">
-        <v>310</v>
-      </c>
-      <c r="B311" t="s">
-        <v>12</v>
-      </c>
-      <c r="C311">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A312">
-        <v>311</v>
-      </c>
-      <c r="B312" t="s">
-        <v>13</v>
-      </c>
-      <c r="C312">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A313">
-        <v>312</v>
-      </c>
-      <c r="B313" t="s">
-        <v>14</v>
-      </c>
-      <c r="C313">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A314">
-        <v>313</v>
-      </c>
-      <c r="B314" t="s">
-        <v>15</v>
-      </c>
-      <c r="C314">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A315">
-        <v>314</v>
-      </c>
-      <c r="B315" t="s">
-        <v>4</v>
-      </c>
-      <c r="C315">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A316">
-        <v>315</v>
-      </c>
-      <c r="B316" t="s">
-        <v>5</v>
-      </c>
-      <c r="C316">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A317">
-        <v>316</v>
-      </c>
-      <c r="B317" t="s">
-        <v>6</v>
-      </c>
-      <c r="C317">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A318">
-        <v>317</v>
-      </c>
-      <c r="B318" t="s">
-        <v>7</v>
-      </c>
-      <c r="C318">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A319">
-        <v>318</v>
-      </c>
-      <c r="B319" t="s">
-        <v>8</v>
-      </c>
-      <c r="C319">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A320">
-        <v>319</v>
-      </c>
-      <c r="B320" t="s">
-        <v>9</v>
-      </c>
-      <c r="C320">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A321">
-        <v>320</v>
-      </c>
-      <c r="B321" t="s">
-        <v>10</v>
-      </c>
-      <c r="C321">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A322">
-        <v>321</v>
-      </c>
-      <c r="B322" t="s">
-        <v>11</v>
-      </c>
-      <c r="C322">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A323">
-        <v>322</v>
-      </c>
-      <c r="B323" t="s">
-        <v>12</v>
-      </c>
-      <c r="C323">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A324">
-        <v>323</v>
-      </c>
-      <c r="B324" t="s">
-        <v>13</v>
-      </c>
-      <c r="C324">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A325">
-        <v>324</v>
-      </c>
-      <c r="B325" t="s">
-        <v>14</v>
-      </c>
-      <c r="C325">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A326">
-        <v>325</v>
-      </c>
-      <c r="B326" t="s">
-        <v>15</v>
-      </c>
-      <c r="C326">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A327">
-        <v>326</v>
-      </c>
-      <c r="B327" t="s">
-        <v>4</v>
-      </c>
-      <c r="C327">
         <v>2020</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/raw data used/DimTime.xlsx
+++ b/raw data used/DimTime.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="16">
   <si>
     <t>TimeID</t>
   </si>
@@ -72,6 +75,9 @@
   </si>
   <si>
     <t>Nov</t>
+  </si>
+  <si>
+    <t>MonthName</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,26 +449,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C302"/>
+  <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -470,10 +482,13 @@
         <v>3</v>
       </c>
       <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
         <v>1995</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -481,10 +496,13 @@
         <v>4</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>1996</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -492,10 +510,13 @@
         <v>5</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>1996</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -503,10 +524,13 @@
         <v>6</v>
       </c>
       <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>1996</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -514,10 +538,13 @@
         <v>7</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>1996</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -525,10 +552,13 @@
         <v>8</v>
       </c>
       <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>1996</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -536,10 +566,13 @@
         <v>9</v>
       </c>
       <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
         <v>1996</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -547,10 +580,13 @@
         <v>10</v>
       </c>
       <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
         <v>1996</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -558,10 +594,13 @@
         <v>11</v>
       </c>
       <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
         <v>1996</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -569,10 +608,13 @@
         <v>12</v>
       </c>
       <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>1996</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -580,10 +622,13 @@
         <v>13</v>
       </c>
       <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
         <v>1996</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -591,10 +636,13 @@
         <v>14</v>
       </c>
       <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
         <v>1996</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -602,10 +650,13 @@
         <v>3</v>
       </c>
       <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
         <v>1996</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -613,10 +664,13 @@
         <v>4</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>1997</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -624,10 +678,13 @@
         <v>5</v>
       </c>
       <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
         <v>1997</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -635,10 +692,13 @@
         <v>6</v>
       </c>
       <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
         <v>1997</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -646,10 +706,13 @@
         <v>7</v>
       </c>
       <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
         <v>1997</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -657,10 +720,13 @@
         <v>8</v>
       </c>
       <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
         <v>1997</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -668,10 +734,13 @@
         <v>9</v>
       </c>
       <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
         <v>1997</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -679,10 +748,13 @@
         <v>10</v>
       </c>
       <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
         <v>1997</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -690,10 +762,13 @@
         <v>11</v>
       </c>
       <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
         <v>1997</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -701,10 +776,13 @@
         <v>12</v>
       </c>
       <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
         <v>1997</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -712,10 +790,13 @@
         <v>13</v>
       </c>
       <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
         <v>1997</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -723,10 +804,13 @@
         <v>14</v>
       </c>
       <c r="C25">
+        <v>11</v>
+      </c>
+      <c r="D25">
         <v>1997</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -734,10 +818,13 @@
         <v>3</v>
       </c>
       <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26">
         <v>1997</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -745,10 +832,13 @@
         <v>4</v>
       </c>
       <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>1998</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -756,10 +846,13 @@
         <v>5</v>
       </c>
       <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
         <v>1998</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -767,10 +860,13 @@
         <v>6</v>
       </c>
       <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
         <v>1998</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -778,10 +874,13 @@
         <v>7</v>
       </c>
       <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
         <v>1998</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -789,10 +888,13 @@
         <v>8</v>
       </c>
       <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
         <v>1998</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -800,10 +902,13 @@
         <v>9</v>
       </c>
       <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
         <v>1998</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -811,10 +916,13 @@
         <v>10</v>
       </c>
       <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
         <v>1998</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -822,10 +930,13 @@
         <v>11</v>
       </c>
       <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34">
         <v>1998</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -833,10 +944,13 @@
         <v>12</v>
       </c>
       <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
         <v>1998</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -844,10 +958,13 @@
         <v>13</v>
       </c>
       <c r="C36">
+        <v>10</v>
+      </c>
+      <c r="D36">
         <v>1998</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -855,10 +972,13 @@
         <v>14</v>
       </c>
       <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
         <v>1998</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -866,10 +986,13 @@
         <v>3</v>
       </c>
       <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38">
         <v>1998</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -877,10 +1000,13 @@
         <v>4</v>
       </c>
       <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
         <v>1999</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -888,10 +1014,13 @@
         <v>5</v>
       </c>
       <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
         <v>1999</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -899,10 +1028,13 @@
         <v>6</v>
       </c>
       <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
         <v>1999</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -910,10 +1042,13 @@
         <v>7</v>
       </c>
       <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
         <v>1999</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -921,10 +1056,13 @@
         <v>8</v>
       </c>
       <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
         <v>1999</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -932,10 +1070,13 @@
         <v>9</v>
       </c>
       <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
         <v>1999</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -943,10 +1084,13 @@
         <v>10</v>
       </c>
       <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
         <v>1999</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -954,10 +1098,13 @@
         <v>11</v>
       </c>
       <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
         <v>1999</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -965,10 +1112,13 @@
         <v>12</v>
       </c>
       <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47">
         <v>1999</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -976,10 +1126,13 @@
         <v>13</v>
       </c>
       <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
         <v>1999</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -987,10 +1140,13 @@
         <v>14</v>
       </c>
       <c r="C49">
+        <v>11</v>
+      </c>
+      <c r="D49">
         <v>1999</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -998,10 +1154,13 @@
         <v>3</v>
       </c>
       <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50">
         <v>1999</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1009,10 +1168,13 @@
         <v>4</v>
       </c>
       <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1020,10 +1182,13 @@
         <v>5</v>
       </c>
       <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1031,10 +1196,13 @@
         <v>6</v>
       </c>
       <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
         <v>2000</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1042,10 +1210,13 @@
         <v>7</v>
       </c>
       <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
         <v>2000</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1053,10 +1224,13 @@
         <v>8</v>
       </c>
       <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1064,10 +1238,13 @@
         <v>9</v>
       </c>
       <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
         <v>2000</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1075,10 +1252,13 @@
         <v>10</v>
       </c>
       <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57">
         <v>2000</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1086,10 +1266,13 @@
         <v>11</v>
       </c>
       <c r="C58">
+        <v>8</v>
+      </c>
+      <c r="D58">
         <v>2000</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1097,10 +1280,13 @@
         <v>12</v>
       </c>
       <c r="C59">
+        <v>9</v>
+      </c>
+      <c r="D59">
         <v>2000</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1108,10 +1294,13 @@
         <v>13</v>
       </c>
       <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1119,10 +1308,13 @@
         <v>14</v>
       </c>
       <c r="C61">
+        <v>11</v>
+      </c>
+      <c r="D61">
         <v>2000</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1130,10 +1322,13 @@
         <v>3</v>
       </c>
       <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62">
         <v>2000</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1141,10 +1336,13 @@
         <v>4</v>
       </c>
       <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
         <v>2001</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1152,10 +1350,13 @@
         <v>5</v>
       </c>
       <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
         <v>2001</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1163,10 +1364,13 @@
         <v>6</v>
       </c>
       <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
         <v>2001</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1174,10 +1378,13 @@
         <v>7</v>
       </c>
       <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
         <v>2001</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1185,10 +1392,13 @@
         <v>8</v>
       </c>
       <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
         <v>2001</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1196,10 +1406,13 @@
         <v>9</v>
       </c>
       <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
         <v>2001</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1207,10 +1420,13 @@
         <v>10</v>
       </c>
       <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69">
         <v>2001</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1218,10 +1434,13 @@
         <v>11</v>
       </c>
       <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
         <v>2001</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1229,10 +1448,13 @@
         <v>12</v>
       </c>
       <c r="C71">
+        <v>9</v>
+      </c>
+      <c r="D71">
         <v>2001</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1240,10 +1462,13 @@
         <v>13</v>
       </c>
       <c r="C72">
+        <v>10</v>
+      </c>
+      <c r="D72">
         <v>2001</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1251,10 +1476,13 @@
         <v>14</v>
       </c>
       <c r="C73">
+        <v>11</v>
+      </c>
+      <c r="D73">
         <v>2001</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1262,10 +1490,13 @@
         <v>3</v>
       </c>
       <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74">
         <v>2001</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1273,10 +1504,13 @@
         <v>4</v>
       </c>
       <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
         <v>2002</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1284,10 +1518,13 @@
         <v>5</v>
       </c>
       <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
         <v>2002</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1295,10 +1532,13 @@
         <v>6</v>
       </c>
       <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
         <v>2002</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1306,10 +1546,13 @@
         <v>7</v>
       </c>
       <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
         <v>2002</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1317,10 +1560,13 @@
         <v>8</v>
       </c>
       <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
         <v>2002</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1328,10 +1574,13 @@
         <v>9</v>
       </c>
       <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80">
         <v>2002</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1339,10 +1588,13 @@
         <v>10</v>
       </c>
       <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81">
         <v>2002</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1350,10 +1602,13 @@
         <v>11</v>
       </c>
       <c r="C82">
+        <v>8</v>
+      </c>
+      <c r="D82">
         <v>2002</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1361,10 +1616,13 @@
         <v>12</v>
       </c>
       <c r="C83">
+        <v>9</v>
+      </c>
+      <c r="D83">
         <v>2002</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1372,10 +1630,13 @@
         <v>13</v>
       </c>
       <c r="C84">
+        <v>10</v>
+      </c>
+      <c r="D84">
         <v>2002</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1383,10 +1644,13 @@
         <v>14</v>
       </c>
       <c r="C85">
+        <v>11</v>
+      </c>
+      <c r="D85">
         <v>2002</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1394,10 +1658,13 @@
         <v>3</v>
       </c>
       <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86">
         <v>2002</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1405,10 +1672,13 @@
         <v>4</v>
       </c>
       <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
         <v>2003</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1416,10 +1686,13 @@
         <v>5</v>
       </c>
       <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
         <v>2003</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1427,10 +1700,13 @@
         <v>6</v>
       </c>
       <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
         <v>2003</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1438,10 +1714,13 @@
         <v>7</v>
       </c>
       <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
         <v>2003</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1449,10 +1728,13 @@
         <v>8</v>
       </c>
       <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
         <v>2003</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1460,10 +1742,13 @@
         <v>9</v>
       </c>
       <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92">
         <v>2003</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1471,10 +1756,13 @@
         <v>10</v>
       </c>
       <c r="C93">
+        <v>7</v>
+      </c>
+      <c r="D93">
         <v>2003</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1482,10 +1770,13 @@
         <v>11</v>
       </c>
       <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="D94">
         <v>2003</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1493,10 +1784,13 @@
         <v>12</v>
       </c>
       <c r="C95">
+        <v>9</v>
+      </c>
+      <c r="D95">
         <v>2003</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1504,10 +1798,13 @@
         <v>13</v>
       </c>
       <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
         <v>2003</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1515,10 +1812,13 @@
         <v>14</v>
       </c>
       <c r="C97">
+        <v>11</v>
+      </c>
+      <c r="D97">
         <v>2003</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1526,10 +1826,13 @@
         <v>3</v>
       </c>
       <c r="C98">
+        <v>12</v>
+      </c>
+      <c r="D98">
         <v>2003</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1537,10 +1840,13 @@
         <v>4</v>
       </c>
       <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
         <v>2004</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1548,10 +1854,13 @@
         <v>5</v>
       </c>
       <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
         <v>2004</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1559,10 +1868,13 @@
         <v>6</v>
       </c>
       <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
         <v>2004</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1570,10 +1882,13 @@
         <v>7</v>
       </c>
       <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
         <v>2004</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1581,10 +1896,13 @@
         <v>8</v>
       </c>
       <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103">
         <v>2004</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1592,10 +1910,13 @@
         <v>9</v>
       </c>
       <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104">
         <v>2004</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1603,10 +1924,13 @@
         <v>10</v>
       </c>
       <c r="C105">
+        <v>7</v>
+      </c>
+      <c r="D105">
         <v>2004</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1614,10 +1938,13 @@
         <v>11</v>
       </c>
       <c r="C106">
+        <v>8</v>
+      </c>
+      <c r="D106">
         <v>2004</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1625,10 +1952,13 @@
         <v>12</v>
       </c>
       <c r="C107">
+        <v>9</v>
+      </c>
+      <c r="D107">
         <v>2004</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1636,10 +1966,13 @@
         <v>13</v>
       </c>
       <c r="C108">
+        <v>10</v>
+      </c>
+      <c r="D108">
         <v>2004</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1647,10 +1980,13 @@
         <v>14</v>
       </c>
       <c r="C109">
+        <v>11</v>
+      </c>
+      <c r="D109">
         <v>2004</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -1658,10 +1994,13 @@
         <v>3</v>
       </c>
       <c r="C110">
+        <v>12</v>
+      </c>
+      <c r="D110">
         <v>2004</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1669,10 +2008,13 @@
         <v>4</v>
       </c>
       <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
         <v>2005</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1680,10 +2022,13 @@
         <v>5</v>
       </c>
       <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
         <v>2005</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1691,10 +2036,13 @@
         <v>6</v>
       </c>
       <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
         <v>2005</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -1702,10 +2050,13 @@
         <v>7</v>
       </c>
       <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
         <v>2005</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -1713,10 +2064,13 @@
         <v>8</v>
       </c>
       <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
         <v>2005</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -1724,10 +2078,13 @@
         <v>9</v>
       </c>
       <c r="C116">
+        <v>6</v>
+      </c>
+      <c r="D116">
         <v>2005</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -1735,10 +2092,13 @@
         <v>10</v>
       </c>
       <c r="C117">
+        <v>7</v>
+      </c>
+      <c r="D117">
         <v>2005</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -1746,10 +2106,13 @@
         <v>11</v>
       </c>
       <c r="C118">
+        <v>8</v>
+      </c>
+      <c r="D118">
         <v>2005</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -1757,10 +2120,13 @@
         <v>12</v>
       </c>
       <c r="C119">
+        <v>9</v>
+      </c>
+      <c r="D119">
         <v>2005</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -1768,10 +2134,13 @@
         <v>13</v>
       </c>
       <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120">
         <v>2005</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -1779,10 +2148,13 @@
         <v>14</v>
       </c>
       <c r="C121">
+        <v>11</v>
+      </c>
+      <c r="D121">
         <v>2005</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -1790,10 +2162,13 @@
         <v>3</v>
       </c>
       <c r="C122">
+        <v>12</v>
+      </c>
+      <c r="D122">
         <v>2005</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -1801,10 +2176,13 @@
         <v>4</v>
       </c>
       <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
         <v>2006</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -1812,10 +2190,13 @@
         <v>5</v>
       </c>
       <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
         <v>2006</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -1823,10 +2204,13 @@
         <v>6</v>
       </c>
       <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
         <v>2006</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -1834,10 +2218,13 @@
         <v>7</v>
       </c>
       <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126">
         <v>2006</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -1845,10 +2232,13 @@
         <v>8</v>
       </c>
       <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
         <v>2006</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -1856,10 +2246,13 @@
         <v>9</v>
       </c>
       <c r="C128">
+        <v>6</v>
+      </c>
+      <c r="D128">
         <v>2006</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -1867,10 +2260,13 @@
         <v>10</v>
       </c>
       <c r="C129">
+        <v>7</v>
+      </c>
+      <c r="D129">
         <v>2006</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -1878,10 +2274,13 @@
         <v>11</v>
       </c>
       <c r="C130">
+        <v>8</v>
+      </c>
+      <c r="D130">
         <v>2006</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -1889,10 +2288,13 @@
         <v>12</v>
       </c>
       <c r="C131">
+        <v>9</v>
+      </c>
+      <c r="D131">
         <v>2006</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -1900,10 +2302,13 @@
         <v>13</v>
       </c>
       <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132">
         <v>2006</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -1911,10 +2316,13 @@
         <v>14</v>
       </c>
       <c r="C133">
+        <v>11</v>
+      </c>
+      <c r="D133">
         <v>2006</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -1922,10 +2330,13 @@
         <v>3</v>
       </c>
       <c r="C134">
+        <v>12</v>
+      </c>
+      <c r="D134">
         <v>2006</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -1933,10 +2344,13 @@
         <v>4</v>
       </c>
       <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
         <v>2007</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -1944,10 +2358,13 @@
         <v>5</v>
       </c>
       <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
         <v>2007</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -1955,10 +2372,13 @@
         <v>6</v>
       </c>
       <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
         <v>2007</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -1966,10 +2386,13 @@
         <v>7</v>
       </c>
       <c r="C138">
+        <v>4</v>
+      </c>
+      <c r="D138">
         <v>2007</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -1977,10 +2400,13 @@
         <v>8</v>
       </c>
       <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139">
         <v>2007</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -1988,10 +2414,13 @@
         <v>9</v>
       </c>
       <c r="C140">
+        <v>6</v>
+      </c>
+      <c r="D140">
         <v>2007</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -1999,10 +2428,13 @@
         <v>10</v>
       </c>
       <c r="C141">
+        <v>7</v>
+      </c>
+      <c r="D141">
         <v>2007</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2010,10 +2442,13 @@
         <v>11</v>
       </c>
       <c r="C142">
+        <v>8</v>
+      </c>
+      <c r="D142">
         <v>2007</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2021,10 +2456,13 @@
         <v>12</v>
       </c>
       <c r="C143">
+        <v>9</v>
+      </c>
+      <c r="D143">
         <v>2007</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2032,10 +2470,13 @@
         <v>13</v>
       </c>
       <c r="C144">
+        <v>10</v>
+      </c>
+      <c r="D144">
         <v>2007</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2043,10 +2484,13 @@
         <v>14</v>
       </c>
       <c r="C145">
+        <v>11</v>
+      </c>
+      <c r="D145">
         <v>2007</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2054,10 +2498,13 @@
         <v>3</v>
       </c>
       <c r="C146">
+        <v>12</v>
+      </c>
+      <c r="D146">
         <v>2007</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2065,10 +2512,13 @@
         <v>4</v>
       </c>
       <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
         <v>2008</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2076,10 +2526,13 @@
         <v>5</v>
       </c>
       <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
         <v>2008</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2087,10 +2540,13 @@
         <v>6</v>
       </c>
       <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
         <v>2008</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2098,10 +2554,13 @@
         <v>7</v>
       </c>
       <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150">
         <v>2008</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2109,10 +2568,13 @@
         <v>8</v>
       </c>
       <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151">
         <v>2008</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2120,10 +2582,13 @@
         <v>9</v>
       </c>
       <c r="C152">
+        <v>6</v>
+      </c>
+      <c r="D152">
         <v>2008</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -2131,10 +2596,13 @@
         <v>10</v>
       </c>
       <c r="C153">
+        <v>7</v>
+      </c>
+      <c r="D153">
         <v>2008</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -2142,10 +2610,13 @@
         <v>11</v>
       </c>
       <c r="C154">
+        <v>8</v>
+      </c>
+      <c r="D154">
         <v>2008</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -2153,10 +2624,13 @@
         <v>12</v>
       </c>
       <c r="C155">
+        <v>9</v>
+      </c>
+      <c r="D155">
         <v>2008</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -2164,10 +2638,13 @@
         <v>13</v>
       </c>
       <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156">
         <v>2008</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -2175,10 +2652,13 @@
         <v>14</v>
       </c>
       <c r="C157">
+        <v>11</v>
+      </c>
+      <c r="D157">
         <v>2008</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -2186,10 +2666,13 @@
         <v>3</v>
       </c>
       <c r="C158">
+        <v>12</v>
+      </c>
+      <c r="D158">
         <v>2008</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -2197,10 +2680,13 @@
         <v>4</v>
       </c>
       <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
         <v>2009</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -2208,10 +2694,13 @@
         <v>5</v>
       </c>
       <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160">
         <v>2009</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -2219,10 +2708,13 @@
         <v>6</v>
       </c>
       <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161">
         <v>2009</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -2230,10 +2722,13 @@
         <v>7</v>
       </c>
       <c r="C162">
+        <v>4</v>
+      </c>
+      <c r="D162">
         <v>2009</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -2241,10 +2736,13 @@
         <v>8</v>
       </c>
       <c r="C163">
+        <v>5</v>
+      </c>
+      <c r="D163">
         <v>2009</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -2252,10 +2750,13 @@
         <v>9</v>
       </c>
       <c r="C164">
+        <v>6</v>
+      </c>
+      <c r="D164">
         <v>2009</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -2263,10 +2764,13 @@
         <v>10</v>
       </c>
       <c r="C165">
+        <v>7</v>
+      </c>
+      <c r="D165">
         <v>2009</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -2274,10 +2778,13 @@
         <v>11</v>
       </c>
       <c r="C166">
+        <v>8</v>
+      </c>
+      <c r="D166">
         <v>2009</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -2285,10 +2792,13 @@
         <v>12</v>
       </c>
       <c r="C167">
+        <v>9</v>
+      </c>
+      <c r="D167">
         <v>2009</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -2296,10 +2806,13 @@
         <v>13</v>
       </c>
       <c r="C168">
+        <v>10</v>
+      </c>
+      <c r="D168">
         <v>2009</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -2307,10 +2820,13 @@
         <v>14</v>
       </c>
       <c r="C169">
+        <v>11</v>
+      </c>
+      <c r="D169">
         <v>2009</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -2318,10 +2834,13 @@
         <v>3</v>
       </c>
       <c r="C170">
+        <v>12</v>
+      </c>
+      <c r="D170">
         <v>2009</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -2329,10 +2848,13 @@
         <v>4</v>
       </c>
       <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
         <v>2010</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -2340,10 +2862,13 @@
         <v>5</v>
       </c>
       <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172">
         <v>2010</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -2351,10 +2876,13 @@
         <v>6</v>
       </c>
       <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
         <v>2010</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -2362,10 +2890,13 @@
         <v>7</v>
       </c>
       <c r="C174">
+        <v>4</v>
+      </c>
+      <c r="D174">
         <v>2010</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:4">
       <c r="A175">
         <v>174</v>
       </c>
@@ -2373,10 +2904,13 @@
         <v>8</v>
       </c>
       <c r="C175">
+        <v>5</v>
+      </c>
+      <c r="D175">
         <v>2010</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:4">
       <c r="A176">
         <v>175</v>
       </c>
@@ -2384,10 +2918,13 @@
         <v>9</v>
       </c>
       <c r="C176">
+        <v>6</v>
+      </c>
+      <c r="D176">
         <v>2010</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -2395,10 +2932,13 @@
         <v>10</v>
       </c>
       <c r="C177">
+        <v>7</v>
+      </c>
+      <c r="D177">
         <v>2010</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -2406,10 +2946,13 @@
         <v>11</v>
       </c>
       <c r="C178">
+        <v>8</v>
+      </c>
+      <c r="D178">
         <v>2010</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -2417,10 +2960,13 @@
         <v>12</v>
       </c>
       <c r="C179">
+        <v>9</v>
+      </c>
+      <c r="D179">
         <v>2010</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:4">
       <c r="A180">
         <v>179</v>
       </c>
@@ -2428,10 +2974,13 @@
         <v>13</v>
       </c>
       <c r="C180">
+        <v>10</v>
+      </c>
+      <c r="D180">
         <v>2010</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -2439,10 +2988,13 @@
         <v>14</v>
       </c>
       <c r="C181">
+        <v>11</v>
+      </c>
+      <c r="D181">
         <v>2010</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:4">
       <c r="A182">
         <v>181</v>
       </c>
@@ -2450,10 +3002,13 @@
         <v>3</v>
       </c>
       <c r="C182">
+        <v>12</v>
+      </c>
+      <c r="D182">
         <v>2010</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -2461,10 +3016,13 @@
         <v>4</v>
       </c>
       <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
         <v>2011</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:4">
       <c r="A184">
         <v>183</v>
       </c>
@@ -2472,10 +3030,13 @@
         <v>5</v>
       </c>
       <c r="C184">
+        <v>2</v>
+      </c>
+      <c r="D184">
         <v>2011</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -2483,10 +3044,13 @@
         <v>6</v>
       </c>
       <c r="C185">
+        <v>3</v>
+      </c>
+      <c r="D185">
         <v>2011</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -2494,10 +3058,13 @@
         <v>7</v>
       </c>
       <c r="C186">
+        <v>4</v>
+      </c>
+      <c r="D186">
         <v>2011</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -2505,10 +3072,13 @@
         <v>8</v>
       </c>
       <c r="C187">
+        <v>5</v>
+      </c>
+      <c r="D187">
         <v>2011</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:4">
       <c r="A188">
         <v>187</v>
       </c>
@@ -2516,10 +3086,13 @@
         <v>9</v>
       </c>
       <c r="C188">
+        <v>6</v>
+      </c>
+      <c r="D188">
         <v>2011</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:4">
       <c r="A189">
         <v>188</v>
       </c>
@@ -2527,10 +3100,13 @@
         <v>10</v>
       </c>
       <c r="C189">
+        <v>7</v>
+      </c>
+      <c r="D189">
         <v>2011</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -2538,10 +3114,13 @@
         <v>11</v>
       </c>
       <c r="C190">
+        <v>8</v>
+      </c>
+      <c r="D190">
         <v>2011</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -2549,10 +3128,13 @@
         <v>12</v>
       </c>
       <c r="C191">
+        <v>9</v>
+      </c>
+      <c r="D191">
         <v>2011</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:4">
       <c r="A192">
         <v>191</v>
       </c>
@@ -2560,10 +3142,13 @@
         <v>13</v>
       </c>
       <c r="C192">
+        <v>10</v>
+      </c>
+      <c r="D192">
         <v>2011</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:4">
       <c r="A193">
         <v>192</v>
       </c>
@@ -2571,10 +3156,13 @@
         <v>14</v>
       </c>
       <c r="C193">
+        <v>11</v>
+      </c>
+      <c r="D193">
         <v>2011</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -2582,10 +3170,13 @@
         <v>3</v>
       </c>
       <c r="C194">
+        <v>12</v>
+      </c>
+      <c r="D194">
         <v>2011</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -2593,10 +3184,13 @@
         <v>4</v>
       </c>
       <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
         <v>2012</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -2604,10 +3198,13 @@
         <v>5</v>
       </c>
       <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196">
         <v>2012</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -2615,10 +3212,13 @@
         <v>6</v>
       </c>
       <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197">
         <v>2012</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -2626,10 +3226,13 @@
         <v>7</v>
       </c>
       <c r="C198">
+        <v>4</v>
+      </c>
+      <c r="D198">
         <v>2012</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:4">
       <c r="A199">
         <v>198</v>
       </c>
@@ -2637,10 +3240,13 @@
         <v>8</v>
       </c>
       <c r="C199">
+        <v>5</v>
+      </c>
+      <c r="D199">
         <v>2012</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -2648,10 +3254,13 @@
         <v>9</v>
       </c>
       <c r="C200">
+        <v>6</v>
+      </c>
+      <c r="D200">
         <v>2012</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -2659,10 +3268,13 @@
         <v>10</v>
       </c>
       <c r="C201">
+        <v>7</v>
+      </c>
+      <c r="D201">
         <v>2012</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -2670,10 +3282,13 @@
         <v>11</v>
       </c>
       <c r="C202">
+        <v>8</v>
+      </c>
+      <c r="D202">
         <v>2012</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -2681,10 +3296,13 @@
         <v>12</v>
       </c>
       <c r="C203">
+        <v>9</v>
+      </c>
+      <c r="D203">
         <v>2012</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -2692,10 +3310,13 @@
         <v>13</v>
       </c>
       <c r="C204">
+        <v>10</v>
+      </c>
+      <c r="D204">
         <v>2012</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -2703,10 +3324,13 @@
         <v>14</v>
       </c>
       <c r="C205">
+        <v>11</v>
+      </c>
+      <c r="D205">
         <v>2012</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -2714,10 +3338,13 @@
         <v>3</v>
       </c>
       <c r="C206">
+        <v>12</v>
+      </c>
+      <c r="D206">
         <v>2012</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -2725,10 +3352,13 @@
         <v>4</v>
       </c>
       <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
         <v>2013</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -2736,10 +3366,13 @@
         <v>5</v>
       </c>
       <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208">
         <v>2013</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -2747,10 +3380,13 @@
         <v>6</v>
       </c>
       <c r="C209">
+        <v>3</v>
+      </c>
+      <c r="D209">
         <v>2013</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -2758,10 +3394,13 @@
         <v>7</v>
       </c>
       <c r="C210">
+        <v>4</v>
+      </c>
+      <c r="D210">
         <v>2013</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -2769,10 +3408,13 @@
         <v>8</v>
       </c>
       <c r="C211">
+        <v>5</v>
+      </c>
+      <c r="D211">
         <v>2013</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -2780,10 +3422,13 @@
         <v>9</v>
       </c>
       <c r="C212">
+        <v>6</v>
+      </c>
+      <c r="D212">
         <v>2013</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -2791,10 +3436,13 @@
         <v>10</v>
       </c>
       <c r="C213">
+        <v>7</v>
+      </c>
+      <c r="D213">
         <v>2013</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -2802,10 +3450,13 @@
         <v>11</v>
       </c>
       <c r="C214">
+        <v>8</v>
+      </c>
+      <c r="D214">
         <v>2013</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -2813,10 +3464,13 @@
         <v>12</v>
       </c>
       <c r="C215">
+        <v>9</v>
+      </c>
+      <c r="D215">
         <v>2013</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -2824,10 +3478,13 @@
         <v>13</v>
       </c>
       <c r="C216">
+        <v>10</v>
+      </c>
+      <c r="D216">
         <v>2013</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -2835,10 +3492,13 @@
         <v>14</v>
       </c>
       <c r="C217">
+        <v>11</v>
+      </c>
+      <c r="D217">
         <v>2013</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -2846,10 +3506,13 @@
         <v>3</v>
       </c>
       <c r="C218">
+        <v>12</v>
+      </c>
+      <c r="D218">
         <v>2013</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -2857,10 +3520,13 @@
         <v>4</v>
       </c>
       <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
         <v>2014</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -2868,10 +3534,13 @@
         <v>5</v>
       </c>
       <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220">
         <v>2014</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:4">
       <c r="A221">
         <v>220</v>
       </c>
@@ -2879,10 +3548,13 @@
         <v>6</v>
       </c>
       <c r="C221">
+        <v>3</v>
+      </c>
+      <c r="D221">
         <v>2014</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -2890,10 +3562,13 @@
         <v>7</v>
       </c>
       <c r="C222">
+        <v>4</v>
+      </c>
+      <c r="D222">
         <v>2014</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:4">
       <c r="A223">
         <v>222</v>
       </c>
@@ -2901,10 +3576,13 @@
         <v>8</v>
       </c>
       <c r="C223">
+        <v>5</v>
+      </c>
+      <c r="D223">
         <v>2014</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -2912,10 +3590,13 @@
         <v>9</v>
       </c>
       <c r="C224">
+        <v>6</v>
+      </c>
+      <c r="D224">
         <v>2014</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:4">
       <c r="A225">
         <v>224</v>
       </c>
@@ -2923,10 +3604,13 @@
         <v>10</v>
       </c>
       <c r="C225">
+        <v>7</v>
+      </c>
+      <c r="D225">
         <v>2014</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -2934,10 +3618,13 @@
         <v>11</v>
       </c>
       <c r="C226">
+        <v>8</v>
+      </c>
+      <c r="D226">
         <v>2014</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:4">
       <c r="A227">
         <v>226</v>
       </c>
@@ -2945,10 +3632,13 @@
         <v>12</v>
       </c>
       <c r="C227">
+        <v>9</v>
+      </c>
+      <c r="D227">
         <v>2014</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:4">
       <c r="A228">
         <v>227</v>
       </c>
@@ -2956,10 +3646,13 @@
         <v>13</v>
       </c>
       <c r="C228">
+        <v>10</v>
+      </c>
+      <c r="D228">
         <v>2014</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:4">
       <c r="A229">
         <v>228</v>
       </c>
@@ -2967,10 +3660,13 @@
         <v>14</v>
       </c>
       <c r="C229">
+        <v>11</v>
+      </c>
+      <c r="D229">
         <v>2014</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -2978,10 +3674,13 @@
         <v>3</v>
       </c>
       <c r="C230">
+        <v>12</v>
+      </c>
+      <c r="D230">
         <v>2014</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:4">
       <c r="A231">
         <v>230</v>
       </c>
@@ -2989,10 +3688,13 @@
         <v>4</v>
       </c>
       <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
         <v>2015</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:4">
       <c r="A232">
         <v>231</v>
       </c>
@@ -3000,10 +3702,13 @@
         <v>5</v>
       </c>
       <c r="C232">
+        <v>2</v>
+      </c>
+      <c r="D232">
         <v>2015</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:4">
       <c r="A233">
         <v>232</v>
       </c>
@@ -3011,10 +3716,13 @@
         <v>6</v>
       </c>
       <c r="C233">
+        <v>3</v>
+      </c>
+      <c r="D233">
         <v>2015</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:4">
       <c r="A234">
         <v>233</v>
       </c>
@@ -3022,10 +3730,13 @@
         <v>7</v>
       </c>
       <c r="C234">
+        <v>4</v>
+      </c>
+      <c r="D234">
         <v>2015</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:4">
       <c r="A235">
         <v>234</v>
       </c>
@@ -3033,10 +3744,13 @@
         <v>8</v>
       </c>
       <c r="C235">
+        <v>5</v>
+      </c>
+      <c r="D235">
         <v>2015</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:4">
       <c r="A236">
         <v>235</v>
       </c>
@@ -3044,10 +3758,13 @@
         <v>9</v>
       </c>
       <c r="C236">
+        <v>6</v>
+      </c>
+      <c r="D236">
         <v>2015</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:4">
       <c r="A237">
         <v>236</v>
       </c>
@@ -3055,10 +3772,13 @@
         <v>10</v>
       </c>
       <c r="C237">
+        <v>7</v>
+      </c>
+      <c r="D237">
         <v>2015</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:4">
       <c r="A238">
         <v>237</v>
       </c>
@@ -3066,10 +3786,13 @@
         <v>11</v>
       </c>
       <c r="C238">
+        <v>8</v>
+      </c>
+      <c r="D238">
         <v>2015</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:4">
       <c r="A239">
         <v>238</v>
       </c>
@@ -3077,10 +3800,13 @@
         <v>12</v>
       </c>
       <c r="C239">
+        <v>9</v>
+      </c>
+      <c r="D239">
         <v>2015</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
+    <row r="240" spans="1:4">
       <c r="A240">
         <v>239</v>
       </c>
@@ -3088,10 +3814,13 @@
         <v>13</v>
       </c>
       <c r="C240">
+        <v>10</v>
+      </c>
+      <c r="D240">
         <v>2015</v>
       </c>
     </row>
-    <row r="241" spans="1:3">
+    <row r="241" spans="1:4">
       <c r="A241">
         <v>240</v>
       </c>
@@ -3099,10 +3828,13 @@
         <v>14</v>
       </c>
       <c r="C241">
+        <v>11</v>
+      </c>
+      <c r="D241">
         <v>2015</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
+    <row r="242" spans="1:4">
       <c r="A242">
         <v>241</v>
       </c>
@@ -3110,10 +3842,13 @@
         <v>3</v>
       </c>
       <c r="C242">
+        <v>12</v>
+      </c>
+      <c r="D242">
         <v>2015</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -3121,10 +3856,13 @@
         <v>4</v>
       </c>
       <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
         <v>2016</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:4">
       <c r="A244">
         <v>243</v>
       </c>
@@ -3132,10 +3870,13 @@
         <v>5</v>
       </c>
       <c r="C244">
+        <v>2</v>
+      </c>
+      <c r="D244">
         <v>2016</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:4">
       <c r="A245">
         <v>244</v>
       </c>
@@ -3143,10 +3884,13 @@
         <v>6</v>
       </c>
       <c r="C245">
+        <v>3</v>
+      </c>
+      <c r="D245">
         <v>2016</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:4">
       <c r="A246">
         <v>245</v>
       </c>
@@ -3154,10 +3898,13 @@
         <v>7</v>
       </c>
       <c r="C246">
+        <v>4</v>
+      </c>
+      <c r="D246">
         <v>2016</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:4">
       <c r="A247">
         <v>246</v>
       </c>
@@ -3165,10 +3912,13 @@
         <v>8</v>
       </c>
       <c r="C247">
+        <v>5</v>
+      </c>
+      <c r="D247">
         <v>2016</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:4">
       <c r="A248">
         <v>247</v>
       </c>
@@ -3176,10 +3926,13 @@
         <v>9</v>
       </c>
       <c r="C248">
+        <v>6</v>
+      </c>
+      <c r="D248">
         <v>2016</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:4">
       <c r="A249">
         <v>248</v>
       </c>
@@ -3187,10 +3940,13 @@
         <v>10</v>
       </c>
       <c r="C249">
+        <v>7</v>
+      </c>
+      <c r="D249">
         <v>2016</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:4">
       <c r="A250">
         <v>249</v>
       </c>
@@ -3198,10 +3954,13 @@
         <v>11</v>
       </c>
       <c r="C250">
+        <v>8</v>
+      </c>
+      <c r="D250">
         <v>2016</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:4">
       <c r="A251">
         <v>250</v>
       </c>
@@ -3209,10 +3968,13 @@
         <v>12</v>
       </c>
       <c r="C251">
+        <v>9</v>
+      </c>
+      <c r="D251">
         <v>2016</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:4">
       <c r="A252">
         <v>251</v>
       </c>
@@ -3220,10 +3982,13 @@
         <v>13</v>
       </c>
       <c r="C252">
+        <v>10</v>
+      </c>
+      <c r="D252">
         <v>2016</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:4">
       <c r="A253">
         <v>252</v>
       </c>
@@ -3231,10 +3996,13 @@
         <v>14</v>
       </c>
       <c r="C253">
+        <v>11</v>
+      </c>
+      <c r="D253">
         <v>2016</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:4">
       <c r="A254">
         <v>253</v>
       </c>
@@ -3242,10 +4010,13 @@
         <v>3</v>
       </c>
       <c r="C254">
+        <v>12</v>
+      </c>
+      <c r="D254">
         <v>2016</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:4">
       <c r="A255">
         <v>254</v>
       </c>
@@ -3253,10 +4024,13 @@
         <v>4</v>
       </c>
       <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
         <v>2017</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:4">
       <c r="A256">
         <v>255</v>
       </c>
@@ -3264,10 +4038,13 @@
         <v>5</v>
       </c>
       <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256">
         <v>2017</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:4">
       <c r="A257">
         <v>256</v>
       </c>
@@ -3275,10 +4052,13 @@
         <v>6</v>
       </c>
       <c r="C257">
+        <v>3</v>
+      </c>
+      <c r="D257">
         <v>2017</v>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:4">
       <c r="A258">
         <v>257</v>
       </c>
@@ -3286,10 +4066,13 @@
         <v>7</v>
       </c>
       <c r="C258">
+        <v>4</v>
+      </c>
+      <c r="D258">
         <v>2017</v>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:4">
       <c r="A259">
         <v>258</v>
       </c>
@@ -3297,10 +4080,13 @@
         <v>8</v>
       </c>
       <c r="C259">
+        <v>5</v>
+      </c>
+      <c r="D259">
         <v>2017</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:4">
       <c r="A260">
         <v>259</v>
       </c>
@@ -3308,10 +4094,13 @@
         <v>9</v>
       </c>
       <c r="C260">
+        <v>6</v>
+      </c>
+      <c r="D260">
         <v>2017</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:4">
       <c r="A261">
         <v>260</v>
       </c>
@@ -3319,10 +4108,13 @@
         <v>10</v>
       </c>
       <c r="C261">
+        <v>7</v>
+      </c>
+      <c r="D261">
         <v>2017</v>
       </c>
     </row>
-    <row r="262" spans="1:3">
+    <row r="262" spans="1:4">
       <c r="A262">
         <v>261</v>
       </c>
@@ -3330,10 +4122,13 @@
         <v>11</v>
       </c>
       <c r="C262">
+        <v>8</v>
+      </c>
+      <c r="D262">
         <v>2017</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:4">
       <c r="A263">
         <v>262</v>
       </c>
@@ -3341,10 +4136,13 @@
         <v>12</v>
       </c>
       <c r="C263">
+        <v>9</v>
+      </c>
+      <c r="D263">
         <v>2017</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
+    <row r="264" spans="1:4">
       <c r="A264">
         <v>263</v>
       </c>
@@ -3352,10 +4150,13 @@
         <v>13</v>
       </c>
       <c r="C264">
+        <v>10</v>
+      </c>
+      <c r="D264">
         <v>2017</v>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:4">
       <c r="A265">
         <v>264</v>
       </c>
@@ -3363,10 +4164,13 @@
         <v>14</v>
       </c>
       <c r="C265">
+        <v>11</v>
+      </c>
+      <c r="D265">
         <v>2017</v>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:4">
       <c r="A266">
         <v>265</v>
       </c>
@@ -3374,10 +4178,13 @@
         <v>3</v>
       </c>
       <c r="C266">
+        <v>12</v>
+      </c>
+      <c r="D266">
         <v>2017</v>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:4">
       <c r="A267">
         <v>266</v>
       </c>
@@ -3385,10 +4192,13 @@
         <v>4</v>
       </c>
       <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
         <v>2018</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:4">
       <c r="A268">
         <v>267</v>
       </c>
@@ -3396,10 +4206,13 @@
         <v>5</v>
       </c>
       <c r="C268">
+        <v>2</v>
+      </c>
+      <c r="D268">
         <v>2018</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:4">
       <c r="A269">
         <v>268</v>
       </c>
@@ -3407,10 +4220,13 @@
         <v>6</v>
       </c>
       <c r="C269">
+        <v>3</v>
+      </c>
+      <c r="D269">
         <v>2018</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:4">
       <c r="A270">
         <v>269</v>
       </c>
@@ -3418,10 +4234,13 @@
         <v>7</v>
       </c>
       <c r="C270">
+        <v>4</v>
+      </c>
+      <c r="D270">
         <v>2018</v>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:4">
       <c r="A271">
         <v>270</v>
       </c>
@@ -3429,10 +4248,13 @@
         <v>8</v>
       </c>
       <c r="C271">
+        <v>5</v>
+      </c>
+      <c r="D271">
         <v>2018</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:4">
       <c r="A272">
         <v>271</v>
       </c>
@@ -3440,10 +4262,13 @@
         <v>9</v>
       </c>
       <c r="C272">
+        <v>6</v>
+      </c>
+      <c r="D272">
         <v>2018</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:4">
       <c r="A273">
         <v>272</v>
       </c>
@@ -3451,10 +4276,13 @@
         <v>10</v>
       </c>
       <c r="C273">
+        <v>7</v>
+      </c>
+      <c r="D273">
         <v>2018</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:4">
       <c r="A274">
         <v>273</v>
       </c>
@@ -3462,10 +4290,13 @@
         <v>11</v>
       </c>
       <c r="C274">
+        <v>8</v>
+      </c>
+      <c r="D274">
         <v>2018</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:4">
       <c r="A275">
         <v>274</v>
       </c>
@@ -3473,10 +4304,13 @@
         <v>12</v>
       </c>
       <c r="C275">
+        <v>9</v>
+      </c>
+      <c r="D275">
         <v>2018</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:4">
       <c r="A276">
         <v>275</v>
       </c>
@@ -3484,10 +4318,13 @@
         <v>13</v>
       </c>
       <c r="C276">
+        <v>10</v>
+      </c>
+      <c r="D276">
         <v>2018</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:4">
       <c r="A277">
         <v>276</v>
       </c>
@@ -3495,10 +4332,13 @@
         <v>14</v>
       </c>
       <c r="C277">
+        <v>11</v>
+      </c>
+      <c r="D277">
         <v>2018</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:4">
       <c r="A278">
         <v>277</v>
       </c>
@@ -3506,10 +4346,13 @@
         <v>3</v>
       </c>
       <c r="C278">
+        <v>12</v>
+      </c>
+      <c r="D278">
         <v>2018</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:4">
       <c r="A279">
         <v>278</v>
       </c>
@@ -3517,10 +4360,13 @@
         <v>4</v>
       </c>
       <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
         <v>2019</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:4">
       <c r="A280">
         <v>279</v>
       </c>
@@ -3528,10 +4374,13 @@
         <v>5</v>
       </c>
       <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280">
         <v>2019</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:4">
       <c r="A281">
         <v>280</v>
       </c>
@@ -3539,10 +4388,13 @@
         <v>6</v>
       </c>
       <c r="C281">
+        <v>3</v>
+      </c>
+      <c r="D281">
         <v>2019</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:4">
       <c r="A282">
         <v>281</v>
       </c>
@@ -3550,10 +4402,13 @@
         <v>7</v>
       </c>
       <c r="C282">
+        <v>4</v>
+      </c>
+      <c r="D282">
         <v>2019</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:4">
       <c r="A283">
         <v>282</v>
       </c>
@@ -3561,10 +4416,13 @@
         <v>8</v>
       </c>
       <c r="C283">
+        <v>5</v>
+      </c>
+      <c r="D283">
         <v>2019</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:4">
       <c r="A284">
         <v>283</v>
       </c>
@@ -3572,10 +4430,13 @@
         <v>9</v>
       </c>
       <c r="C284">
+        <v>6</v>
+      </c>
+      <c r="D284">
         <v>2019</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:4">
       <c r="A285">
         <v>284</v>
       </c>
@@ -3583,10 +4444,13 @@
         <v>10</v>
       </c>
       <c r="C285">
+        <v>7</v>
+      </c>
+      <c r="D285">
         <v>2019</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:4">
       <c r="A286">
         <v>285</v>
       </c>
@@ -3594,10 +4458,13 @@
         <v>11</v>
       </c>
       <c r="C286">
+        <v>8</v>
+      </c>
+      <c r="D286">
         <v>2019</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:4">
       <c r="A287">
         <v>286</v>
       </c>
@@ -3605,10 +4472,13 @@
         <v>12</v>
       </c>
       <c r="C287">
+        <v>9</v>
+      </c>
+      <c r="D287">
         <v>2019</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:4">
       <c r="A288">
         <v>287</v>
       </c>
@@ -3616,10 +4486,13 @@
         <v>13</v>
       </c>
       <c r="C288">
+        <v>10</v>
+      </c>
+      <c r="D288">
         <v>2019</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
+    <row r="289" spans="1:4">
       <c r="A289">
         <v>288</v>
       </c>
@@ -3627,10 +4500,13 @@
         <v>14</v>
       </c>
       <c r="C289">
+        <v>11</v>
+      </c>
+      <c r="D289">
         <v>2019</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
+    <row r="290" spans="1:4">
       <c r="A290">
         <v>289</v>
       </c>
@@ -3638,10 +4514,13 @@
         <v>3</v>
       </c>
       <c r="C290">
+        <v>12</v>
+      </c>
+      <c r="D290">
         <v>2019</v>
       </c>
     </row>
-    <row r="291" spans="1:3">
+    <row r="291" spans="1:4">
       <c r="A291">
         <v>290</v>
       </c>
@@ -3649,10 +4528,13 @@
         <v>4</v>
       </c>
       <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
         <v>2020</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
+    <row r="292" spans="1:4">
       <c r="A292">
         <v>291</v>
       </c>
@@ -3660,10 +4542,13 @@
         <v>5</v>
       </c>
       <c r="C292">
+        <v>2</v>
+      </c>
+      <c r="D292">
         <v>2020</v>
       </c>
     </row>
-    <row r="293" spans="1:3">
+    <row r="293" spans="1:4">
       <c r="A293">
         <v>292</v>
       </c>
@@ -3671,10 +4556,13 @@
         <v>6</v>
       </c>
       <c r="C293">
+        <v>3</v>
+      </c>
+      <c r="D293">
         <v>2020</v>
       </c>
     </row>
-    <row r="294" spans="1:3">
+    <row r="294" spans="1:4">
       <c r="A294">
         <v>293</v>
       </c>
@@ -3682,10 +4570,13 @@
         <v>7</v>
       </c>
       <c r="C294">
+        <v>4</v>
+      </c>
+      <c r="D294">
         <v>2020</v>
       </c>
     </row>
-    <row r="295" spans="1:3">
+    <row r="295" spans="1:4">
       <c r="A295">
         <v>294</v>
       </c>
@@ -3693,10 +4584,13 @@
         <v>8</v>
       </c>
       <c r="C295">
+        <v>5</v>
+      </c>
+      <c r="D295">
         <v>2020</v>
       </c>
     </row>
-    <row r="296" spans="1:3">
+    <row r="296" spans="1:4">
       <c r="A296">
         <v>295</v>
       </c>
@@ -3704,10 +4598,13 @@
         <v>9</v>
       </c>
       <c r="C296">
+        <v>6</v>
+      </c>
+      <c r="D296">
         <v>2020</v>
       </c>
     </row>
-    <row r="297" spans="1:3">
+    <row r="297" spans="1:4">
       <c r="A297">
         <v>296</v>
       </c>
@@ -3715,10 +4612,13 @@
         <v>10</v>
       </c>
       <c r="C297">
+        <v>7</v>
+      </c>
+      <c r="D297">
         <v>2020</v>
       </c>
     </row>
-    <row r="298" spans="1:3">
+    <row r="298" spans="1:4">
       <c r="A298">
         <v>297</v>
       </c>
@@ -3726,10 +4626,13 @@
         <v>11</v>
       </c>
       <c r="C298">
+        <v>8</v>
+      </c>
+      <c r="D298">
         <v>2020</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
+    <row r="299" spans="1:4">
       <c r="A299">
         <v>298</v>
       </c>
@@ -3737,10 +4640,13 @@
         <v>12</v>
       </c>
       <c r="C299">
+        <v>9</v>
+      </c>
+      <c r="D299">
         <v>2020</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
+    <row r="300" spans="1:4">
       <c r="A300">
         <v>299</v>
       </c>
@@ -3748,10 +4654,13 @@
         <v>13</v>
       </c>
       <c r="C300">
+        <v>10</v>
+      </c>
+      <c r="D300">
         <v>2020</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
+    <row r="301" spans="1:4">
       <c r="A301">
         <v>300</v>
       </c>
@@ -3759,10 +4668,13 @@
         <v>14</v>
       </c>
       <c r="C301">
+        <v>11</v>
+      </c>
+      <c r="D301">
         <v>2020</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
+    <row r="302" spans="1:4">
       <c r="A302">
         <v>301</v>
       </c>
@@ -3770,6 +4682,9 @@
         <v>3</v>
       </c>
       <c r="C302">
+        <v>12</v>
+      </c>
+      <c r="D302">
         <v>2020</v>
       </c>
     </row>

--- a/raw data used/DimTime.xlsx
+++ b/raw data used/DimTime.xlsx
@@ -126,17 +126,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,7 +460,7 @@
   <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4690,6 +4698,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
